--- a/biology/Zoologie/Gyrodactylus/Gyrodactylus.xlsx
+++ b/biology/Zoologie/Gyrodactylus/Gyrodactylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gyrodactylus est un genre de vers plats parasites de la classe des Monogènes (Monogenea).
 Le genre comprend de nombreuses espèces. L'espèce type est Gyrodactylus elegans von Nordmann, 1832. Les différentes espèces se retrouvent sur des poissons d'eau douce, d'eau de mer ou d'eau saumâtres.
@@ -512,10 +524,12 @@
           <t>Cycle de vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les monogènes sont des ectoparasites d'organismes aquatiques (principalement de poissons, chez lesquels ils vivent sur les branchies et les nageoires, et parfois la cavité buccale). Ils sont caractérisés par leur cycle de vie direct (œuf, larve, adulte) à un hôte unique. Certains genres, comme Gyrodactylus, s'écartent de cette tendance[1].
-Aussi surnommés « poupées russes tueuses », les Gyrodactylus sont vivipares et pratiquent la polyembryonie, où un individu unique peut porter plusieurs générations prêtes à être relâchées dans l'environnement[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les monogènes sont des ectoparasites d'organismes aquatiques (principalement de poissons, chez lesquels ils vivent sur les branchies et les nageoires, et parfois la cavité buccale). Ils sont caractérisés par leur cycle de vie direct (œuf, larve, adulte) à un hôte unique. Certains genres, comme Gyrodactylus, s'écartent de cette tendance.
+Aussi surnommés « poupées russes tueuses », les Gyrodactylus sont vivipares et pratiquent la polyembryonie, où un individu unique peut porter plusieurs générations prêtes à être relâchées dans l'environnement,.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon WoRMS (site consulté le 15 décembre 2021), il y a plus de 600 espèces, incluant :
 Gyrodactylus acanthorhodei Ergens &amp; Yukhimenko, 1975
